--- a/src/test/resources/intakemanifest_full_slidebox.xlsx
+++ b/src/test/resources/intakemanifest_full_slidebox.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dgonzales/IdeaProjects/testing/cora/src/test/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpatel/eclipse-workspace/cora/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F514116C-565E-124B-A467-8B0D08B192B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A05535D5-B239-C14A-AB23-F602B8705285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32400" yWindow="460" windowWidth="25720" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cora Intake Manifest" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="159">
   <si>
     <t>Cora INTAKE manifest</t>
   </si>
@@ -526,6 +526,12 @@
   </si>
   <si>
     <t>Tracking (MRD)</t>
+  </si>
+  <si>
+    <t>Project.Var11</t>
+  </si>
+  <si>
+    <t>Project.Var12</t>
   </si>
 </sst>
 </file>
@@ -964,6 +970,9 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -978,9 +987,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1301,10 +1307,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BE12"/>
+  <dimension ref="A1:BF12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AH7" sqref="AH7:AH11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AR1" workbookViewId="0">
+      <selection activeCell="BF5" sqref="BF5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1343,10 +1349,10 @@
     <col min="45" max="45" width="36.83203125" style="22" customWidth="1"/>
     <col min="46" max="46" width="20" style="22" customWidth="1"/>
     <col min="47" max="56" width="15.83203125" style="22" customWidth="1"/>
-    <col min="57" max="57" width="2" customWidth="1"/>
+    <col min="57" max="57" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:58" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1405,9 +1411,10 @@
       <c r="BB1" s="17"/>
       <c r="BC1" s="17"/>
       <c r="BD1" s="17"/>
-      <c r="BE1" s="10"/>
-    </row>
-    <row r="2" spans="1:57" ht="26" x14ac:dyDescent="0.2">
+      <c r="BE1" s="17"/>
+      <c r="BF1" s="17"/>
+    </row>
+    <row r="2" spans="1:58" ht="26" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>149</v>
       </c>
@@ -1441,14 +1448,14 @@
       </c>
       <c r="L2" s="18"/>
       <c r="M2" s="18"/>
-      <c r="N2" s="58" t="s">
+      <c r="N2" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
       <c r="T2" s="18" t="s">
         <v>109</v>
       </c>
@@ -1504,19 +1511,20 @@
       <c r="BB2" s="54"/>
       <c r="BC2" s="54"/>
       <c r="BD2" s="54"/>
-      <c r="BE2" s="10"/>
-    </row>
-    <row r="3" spans="1:57" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BE2" s="54"/>
+      <c r="BF2" s="54"/>
+    </row>
+    <row r="3" spans="1:58" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
       <c r="G3" s="42"/>
       <c r="H3" s="42"/>
       <c r="I3" s="42"/>
@@ -1524,18 +1532,18 @@
       <c r="K3" s="44"/>
       <c r="L3" s="42"/>
       <c r="M3" s="42"/>
-      <c r="N3" s="60" t="s">
+      <c r="N3" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60" t="s">
+      <c r="O3" s="61"/>
+      <c r="P3" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60" t="s">
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="S3" s="60"/>
+      <c r="S3" s="61"/>
       <c r="T3" s="42"/>
       <c r="U3" s="42"/>
       <c r="V3" s="43"/>
@@ -1573,9 +1581,10 @@
       <c r="BB3" s="42"/>
       <c r="BC3" s="42"/>
       <c r="BD3" s="42"/>
-      <c r="BE3" s="10"/>
-    </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="BE3" s="42"/>
+      <c r="BF3" s="42"/>
+    </row>
+    <row r="4" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="45" t="s">
         <v>2</v>
@@ -1742,9 +1751,14 @@
       <c r="BD4" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="BE4" s="10"/>
-    </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="BE4" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="BF4" s="47" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -1803,9 +1817,10 @@
       <c r="BB5" s="40"/>
       <c r="BC5" s="40"/>
       <c r="BD5" s="40"/>
-      <c r="BE5" s="10"/>
-    </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="BE5" s="40"/>
+      <c r="BF5" s="40"/>
+    </row>
+    <row r="6" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
@@ -1864,9 +1879,10 @@
       <c r="BB6" s="40"/>
       <c r="BC6" s="40"/>
       <c r="BD6" s="40"/>
-      <c r="BE6" s="10"/>
-    </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="BE6" s="40"/>
+      <c r="BF6" s="40"/>
+    </row>
+    <row r="7" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="12" t="s">
         <v>114</v>
@@ -1878,7 +1894,7 @@
       <c r="E7" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="62" t="s">
+      <c r="F7" s="57" t="s">
         <v>150</v>
       </c>
       <c r="G7" s="28" t="s">
@@ -1887,7 +1903,7 @@
       <c r="H7" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="62" t="str">
+      <c r="I7" s="57" t="str">
         <f>F7</f>
         <v>Slide w/o coverslip-1</v>
       </c>
@@ -1921,7 +1937,7 @@
       <c r="AE7" s="13"/>
       <c r="AF7" s="28"/>
       <c r="AG7" s="28"/>
-      <c r="AH7" s="62" t="str">
+      <c r="AH7" s="57" t="str">
         <f>I7</f>
         <v>Slide w/o coverslip-1</v>
       </c>
@@ -1947,9 +1963,10 @@
       <c r="BB7" s="28"/>
       <c r="BC7" s="28"/>
       <c r="BD7" s="28"/>
-      <c r="BE7" s="10"/>
-    </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="BE7" s="28"/>
+      <c r="BF7" s="28"/>
+    </row>
+    <row r="8" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="12" t="s">
         <v>114</v>
@@ -1961,7 +1978,7 @@
       <c r="E8" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="62" t="s">
+      <c r="F8" s="57" t="s">
         <v>151</v>
       </c>
       <c r="G8" s="28" t="s">
@@ -1970,7 +1987,7 @@
       <c r="H8" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="62" t="str">
+      <c r="I8" s="57" t="str">
         <f t="shared" ref="I8:I11" si="0">F8</f>
         <v>Slide w/o coverslip-2</v>
       </c>
@@ -2004,7 +2021,7 @@
       <c r="AE8" s="13"/>
       <c r="AF8" s="28"/>
       <c r="AG8" s="28"/>
-      <c r="AH8" s="62" t="str">
+      <c r="AH8" s="57" t="str">
         <f t="shared" ref="AH8:AH11" si="1">I8</f>
         <v>Slide w/o coverslip-2</v>
       </c>
@@ -2030,9 +2047,10 @@
       <c r="BB8" s="28"/>
       <c r="BC8" s="28"/>
       <c r="BD8" s="28"/>
-      <c r="BE8" s="10"/>
-    </row>
-    <row r="9" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BE8" s="28"/>
+      <c r="BF8" s="28"/>
+    </row>
+    <row r="9" spans="1:58" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="12" t="s">
         <v>114</v>
@@ -2044,7 +2062,7 @@
       <c r="E9" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F9" s="62" t="s">
+      <c r="F9" s="57" t="s">
         <v>152</v>
       </c>
       <c r="G9" s="28" t="s">
@@ -2053,7 +2071,7 @@
       <c r="H9" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="62" t="str">
+      <c r="I9" s="57" t="str">
         <f t="shared" si="0"/>
         <v>Slide w/o coverslip-3</v>
       </c>
@@ -2087,7 +2105,7 @@
       <c r="AE9" s="13"/>
       <c r="AF9" s="28"/>
       <c r="AG9" s="28"/>
-      <c r="AH9" s="62" t="str">
+      <c r="AH9" s="57" t="str">
         <f t="shared" si="1"/>
         <v>Slide w/o coverslip-3</v>
       </c>
@@ -2113,9 +2131,10 @@
       <c r="BB9" s="28"/>
       <c r="BC9" s="28"/>
       <c r="BD9" s="28"/>
-      <c r="BE9" s="10"/>
-    </row>
-    <row r="10" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BE9" s="28"/>
+      <c r="BF9" s="28"/>
+    </row>
+    <row r="10" spans="1:58" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="12" t="s">
         <v>114</v>
@@ -2127,7 +2146,7 @@
       <c r="E10" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F10" s="62" t="s">
+      <c r="F10" s="57" t="s">
         <v>153</v>
       </c>
       <c r="G10" s="28" t="s">
@@ -2136,7 +2155,7 @@
       <c r="H10" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="I10" s="62" t="str">
+      <c r="I10" s="57" t="str">
         <f t="shared" si="0"/>
         <v>Slide w/o coverslip-4</v>
       </c>
@@ -2170,7 +2189,7 @@
       <c r="AE10" s="13"/>
       <c r="AF10" s="28"/>
       <c r="AG10" s="28"/>
-      <c r="AH10" s="62" t="str">
+      <c r="AH10" s="57" t="str">
         <f t="shared" si="1"/>
         <v>Slide w/o coverslip-4</v>
       </c>
@@ -2196,9 +2215,10 @@
       <c r="BB10" s="28"/>
       <c r="BC10" s="28"/>
       <c r="BD10" s="28"/>
-      <c r="BE10" s="10"/>
-    </row>
-    <row r="11" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BE10" s="28"/>
+      <c r="BF10" s="28"/>
+    </row>
+    <row r="11" spans="1:58" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="12" t="s">
         <v>114</v>
@@ -2210,7 +2230,7 @@
       <c r="E11" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F11" s="62" t="s">
+      <c r="F11" s="57" t="s">
         <v>154</v>
       </c>
       <c r="G11" s="28" t="s">
@@ -2219,7 +2239,7 @@
       <c r="H11" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="62" t="str">
+      <c r="I11" s="57" t="str">
         <f t="shared" si="0"/>
         <v>Slide w/o coverslip-5</v>
       </c>
@@ -2252,7 +2272,7 @@
       <c r="AE11" s="13"/>
       <c r="AF11" s="28"/>
       <c r="AG11" s="28"/>
-      <c r="AH11" s="62" t="str">
+      <c r="AH11" s="57" t="str">
         <f t="shared" si="1"/>
         <v>Slide w/o coverslip-5</v>
       </c>
@@ -2278,9 +2298,10 @@
       <c r="BB11" s="28"/>
       <c r="BC11" s="28"/>
       <c r="BD11" s="28"/>
-      <c r="BE11" s="10"/>
-    </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="BE11" s="28"/>
+      <c r="BF11" s="28"/>
+    </row>
+    <row r="12" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
@@ -2339,7 +2360,8 @@
       <c r="BB12" s="41"/>
       <c r="BC12" s="41"/>
       <c r="BD12" s="41"/>
-      <c r="BE12" s="10"/>
+      <c r="BE12" s="41"/>
+      <c r="BF12" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2392,10 +2414,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="61"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2685,6 +2707,32 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
+    <URL xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </URL>
+    <_dlc_DocId xmlns="a134e188-d237-415e-9089-632cc8d2b4a8">ADAPTIVE-1653259474-6349</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="a134e188-d237-415e-9089-632cc8d2b4a8">
+      <Url>https://adaptivebio.sharepoint.com/engineering/_layouts/15/DocIdRedir.aspx?ID=ADAPTIVE-1653259474-6349</Url>
+      <Description>ADAPTIVE-1653259474-6349</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -2732,32 +2780,6 @@
     <Filter/>
   </Receiver>
 </spe:Receivers>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
-    <URL xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </URL>
-    <_dlc_DocId xmlns="a134e188-d237-415e-9089-632cc8d2b4a8">ADAPTIVE-1653259474-6349</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="a134e188-d237-415e-9089-632cc8d2b4a8">
-      <Url>https://adaptivebio.sharepoint.com/engineering/_layouts/15/DocIdRedir.aspx?ID=ADAPTIVE-1653259474-6349</Url>
-      <Description>ADAPTIVE-1653259474-6349</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2988,22 +3010,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DB796F2-5C91-404E-A982-5BB5583B6419}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C995F59-21A4-4074-851C-1BF821ADB8A5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FF37FDE-501D-48DC-9178-AA6A40941737}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="87ba4a14-7e41-41c7-9f63-fc9ba18728c1"/>
@@ -3018,6 +3024,22 @@
     <ds:schemaRef ds:uri="a134e188-d237-415e-9089-632cc8d2b4a8"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C995F59-21A4-4074-851C-1BF821ADB8A5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DB796F2-5C91-404E-A982-5BB5583B6419}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
